--- a/biology/Zoologie/Dipetalonema_perstans/Dipetalonema_perstans.xlsx
+++ b/biology/Zoologie/Dipetalonema_perstans/Dipetalonema_perstans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipetalonema perstans est une filaire humaine de pathogénicité modérée 
 Elle est répandue en Afrique du Nord jusqu'à la République démocratique du Congo, et en Amérique tropicale. C'est un ver filiforme, blanchâtre, très petit, dont le mâle mesure 4,5 cm et la femelle 7 cm.
